--- a/data/trans_dic/P12B-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12B-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,41</t>
+          <t>3,14; 10,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 14,79</t>
+          <t>2,01; 8,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 20,68</t>
+          <t>5,81; 15,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,18</t>
+          <t>5,15; 14,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,92</t>
+          <t>4,24; 11,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 9,39</t>
+          <t>2,75; 9,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,45</t>
+          <t>3,22; 10,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,12</t>
+          <t>6,44; 17,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,75</t>
+          <t>4,45; 9,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 7,82</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 11,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 13,63</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>7,15%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9,32%</t>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,73</t>
+          <t>3,8; 13,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,0</t>
+          <t>4,56; 14,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,9</t>
+          <t>4,73; 14,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,72</t>
+          <t>4,39; 14,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,9</t>
+          <t>3,73; 11,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 17,13</t>
+          <t>4,21; 12,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 11,52</t>
+          <t>3,38; 10,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,46</t>
+          <t>6,06; 30,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 12,78</t>
+          <t>4,82; 10,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 11,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 10,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 19,79</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 21,79</t>
+          <t>2,81; 30,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 43,96</t>
+          <t>3,11; 66,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,94</t>
+          <t>3,33; 72,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 19,24</t>
+          <t>0,0; 13,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,71</t>
+          <t>0,0; 14,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 25,38</t>
+          <t>0,0; 15,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,19</t>
+          <t>1,5; 15,53</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 41,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 51,76</t>
         </is>
       </c>
     </row>
@@ -962,12 +1077,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -977,32 +1092,47 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,36</t>
+          <t>4,9; 10,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 12,23</t>
+          <t>5,52; 16,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,7</t>
+          <t>5,77; 11,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,4</t>
+          <t>7,13; 20,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,66</t>
+          <t>4,36; 9,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,47</t>
+          <t>4,06; 8,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,82</t>
+          <t>3,99; 8,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,35</t>
+          <t>6,88; 17,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,09</t>
+          <t>5,18; 8,83</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 11,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 9,18</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 16,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,71%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27672</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16604</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38159</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45373</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36852</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22871</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25376</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55277</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>64524</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39475</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>63536</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>100650</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13494; 46816</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7327; 31704</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22110; 57569</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26223; 75828</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21496; 58642</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11593; 40281</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13113; 42635</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35368; 93763</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41647; 90468</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24157; 61426</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44180; 88892</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71501; 144364</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26820</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27674</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27243</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32710</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29323</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25292</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20638</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54762</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56143</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52966</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47882</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>87472</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13673; 47848</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14511; 47175</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15272; 47005</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17695; 57528</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15850; 49276</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14165; 42174</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11315; 36610</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25292; 126617</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37837; 84456</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34935; 77596</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31237; 69796</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54274; 162342</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13486</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22064</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36012</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3833</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4845</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13486</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24040</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3833</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40857</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2855; 31098</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2476; 52716</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3877; 84001</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10873</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12042</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15538</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3048; 31514</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4401; 67242</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13141</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9332; 113445</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67978</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66342</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>65403</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>114096</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>66174</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>50139</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>49848</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>114884</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>134152</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>116481</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>115250</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>228979</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43699; 96272</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>42104; 127568</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>45545; 94179</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>73327; 207724</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>45009; 94969</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>34113; 74728</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32943; 72050</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>73567; 189849</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>99778; 169873</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>86408; 178250</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>87876; 148231</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>165626; 335778</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
